--- a/result/28_pred.xlsx
+++ b/result/28_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,218 +447,282 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>518490.916</v>
+        <v>518455.8128979124</v>
       </c>
       <c r="B2" t="n">
-        <v>376642.059</v>
+        <v>376442.4973136225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>518455.916</v>
+        <v>518431.3267936849</v>
       </c>
       <c r="B3" t="n">
-        <v>376647.059</v>
+        <v>376459.83025047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>518530.916</v>
+        <v>518406.8406894574</v>
       </c>
       <c r="B4" t="n">
-        <v>376612.059</v>
+        <v>376477.1631873176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>518435.916</v>
+        <v>518382.3545852299</v>
       </c>
       <c r="B5" t="n">
-        <v>376617.059</v>
+        <v>376494.4961241651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>518555.916</v>
+        <v>518357.8684810025</v>
       </c>
       <c r="B6" t="n">
-        <v>376592.059</v>
+        <v>376511.8290610126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>518415.916</v>
+        <v>518473.1458347599</v>
       </c>
       <c r="B7" t="n">
-        <v>376587.059</v>
+        <v>376466.98341785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>518395.916</v>
+        <v>518448.6597305324</v>
       </c>
       <c r="B8" t="n">
-        <v>376562.059</v>
+        <v>376484.3163546975</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>518375.916</v>
+        <v>518424.173626305</v>
       </c>
       <c r="B9" t="n">
-        <v>376537.059</v>
+        <v>376501.649291545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>518370.916</v>
+        <v>518399.6875220775</v>
       </c>
       <c r="B10" t="n">
-        <v>376502.059</v>
+        <v>376518.9822283926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>518405.916</v>
+        <v>518375.20141785</v>
       </c>
       <c r="B11" t="n">
-        <v>376472.059</v>
+        <v>376536.3151652401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>518530.916</v>
+        <v>518490.4787716074</v>
       </c>
       <c r="B12" t="n">
-        <v>376552.059</v>
+        <v>376491.4695220775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>518430.916</v>
+        <v>518465.99266738</v>
       </c>
       <c r="B13" t="n">
-        <v>376452.059</v>
+        <v>376508.802458925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>518465.916</v>
+        <v>518441.5065631525</v>
       </c>
       <c r="B14" t="n">
-        <v>376457.059</v>
+        <v>376526.1353957725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>518510.916</v>
+        <v>518417.020458925</v>
       </c>
       <c r="B15" t="n">
-        <v>376522.059</v>
+        <v>376543.46833262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>518485.916</v>
+        <v>518392.5343546975</v>
       </c>
       <c r="B16" t="n">
-        <v>376482.059</v>
+        <v>376560.8012694676</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>518405.916</v>
+        <v>518507.811708455</v>
       </c>
       <c r="B17" t="n">
-        <v>376502.059</v>
+        <v>376515.955626305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>518500.916</v>
+        <v>518483.3256042275</v>
       </c>
       <c r="B18" t="n">
-        <v>376552.059</v>
+        <v>376533.2885631525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>518480.916</v>
+        <v>518458.8395</v>
       </c>
       <c r="B19" t="n">
-        <v>376512.059</v>
+        <v>376550.6215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>518455.916</v>
+        <v>518434.3533957725</v>
       </c>
       <c r="B20" t="n">
-        <v>376487.059</v>
+        <v>376567.9544368475</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>518500.916</v>
+        <v>518409.867291545</v>
       </c>
       <c r="B21" t="n">
-        <v>376607.059</v>
+        <v>376585.2873736951</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>518525.916</v>
+        <v>518525.1446453025</v>
       </c>
       <c r="B22" t="n">
-        <v>376582.059</v>
+        <v>376540.4417305324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>518405.916</v>
+        <v>518500.658541075</v>
       </c>
       <c r="B23" t="n">
-        <v>376532.059</v>
+        <v>376557.77466738</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>518445.916</v>
+        <v>518476.1724368475</v>
       </c>
       <c r="B24" t="n">
-        <v>376577.059</v>
+        <v>376575.1076042275</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>518470.916</v>
+        <v>518451.68633262</v>
       </c>
       <c r="B25" t="n">
-        <v>376612.059</v>
+        <v>376592.440541075</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>518435.916</v>
+        <v>518427.2002283926</v>
       </c>
       <c r="B26" t="n">
-        <v>376547.059</v>
+        <v>376609.7734779225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>518470.916</v>
+        <v>518542.47758215</v>
       </c>
       <c r="B27" t="n">
-        <v>376557.059</v>
+        <v>376564.9278347599</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>518445.916</v>
+        <v>518517.9914779225</v>
       </c>
       <c r="B28" t="n">
-        <v>376517.059</v>
+        <v>376582.2607716075</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>518493.5053736951</v>
+      </c>
+      <c r="B29" t="n">
+        <v>376599.593708455</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>518469.0192694676</v>
+      </c>
+      <c r="B30" t="n">
+        <v>376616.9266453025</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>518444.5331652401</v>
+      </c>
+      <c r="B31" t="n">
+        <v>376634.25958215</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>518559.8105189975</v>
+      </c>
+      <c r="B32" t="n">
+        <v>376589.4139389874</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>518535.3244147701</v>
+      </c>
+      <c r="B33" t="n">
+        <v>376606.7468758349</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>518510.8383105426</v>
+      </c>
+      <c r="B34" t="n">
+        <v>376624.0798126825</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>518486.3522063151</v>
+      </c>
+      <c r="B35" t="n">
+        <v>376641.41274953</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>518461.8661020876</v>
+      </c>
+      <c r="B36" t="n">
+        <v>376658.7456863775</v>
       </c>
     </row>
   </sheetData>

--- a/result/28_pred.xlsx
+++ b/result/28_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,282 +447,122 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>518455.8128979124</v>
+        <v>518445.2664740433</v>
       </c>
       <c r="B2" t="n">
-        <v>376442.4973136225</v>
+        <v>376462.2146395966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>518431.3267936849</v>
+        <v>518412.6183350732</v>
       </c>
       <c r="B3" t="n">
-        <v>376459.83025047</v>
+        <v>376485.32522206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>518406.8406894574</v>
+        <v>518379.9701961033</v>
       </c>
       <c r="B4" t="n">
-        <v>376477.1631873176</v>
+        <v>376508.4358045234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>518382.3545852299</v>
+        <v>518468.3770565066</v>
       </c>
       <c r="B5" t="n">
-        <v>376494.4961241651</v>
+        <v>376494.8627785667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>518357.8684810025</v>
+        <v>518435.7289175366</v>
       </c>
       <c r="B6" t="n">
-        <v>376511.8290610126</v>
+        <v>376517.97336103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>518473.1458347599</v>
+        <v>518403.0807785667</v>
       </c>
       <c r="B7" t="n">
-        <v>376466.98341785</v>
+        <v>376541.0839434934</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>518448.6597305324</v>
+        <v>518491.48763897</v>
       </c>
       <c r="B8" t="n">
-        <v>376484.3163546975</v>
+        <v>376527.5109175366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>518424.173626305</v>
+        <v>518458.8395</v>
       </c>
       <c r="B9" t="n">
-        <v>376501.649291545</v>
+        <v>376550.6215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>518399.6875220775</v>
+        <v>518426.19136103</v>
       </c>
       <c r="B10" t="n">
-        <v>376518.9822283926</v>
+        <v>376573.7320824634</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>518375.20141785</v>
+        <v>518514.5982214333</v>
       </c>
       <c r="B11" t="n">
-        <v>376536.3151652401</v>
+        <v>376560.1590565066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>518490.4787716074</v>
+        <v>518481.9500824634</v>
       </c>
       <c r="B12" t="n">
-        <v>376491.4695220775</v>
+        <v>376583.26963897</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>518465.99266738</v>
+        <v>518449.3019434934</v>
       </c>
       <c r="B13" t="n">
-        <v>376508.802458925</v>
+        <v>376606.3802214334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>518441.5065631525</v>
+        <v>518537.7088038967</v>
       </c>
       <c r="B14" t="n">
-        <v>376526.1353957725</v>
+        <v>376592.8071954766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>518417.020458925</v>
+        <v>518505.0606649268</v>
       </c>
       <c r="B15" t="n">
-        <v>376543.46833262</v>
+        <v>376615.91777794</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>518392.5343546975</v>
+        <v>518472.4125259568</v>
       </c>
       <c r="B16" t="n">
-        <v>376560.8012694676</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>518507.811708455</v>
-      </c>
-      <c r="B17" t="n">
-        <v>376515.955626305</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>518483.3256042275</v>
-      </c>
-      <c r="B18" t="n">
-        <v>376533.2885631525</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>518458.8395</v>
-      </c>
-      <c r="B19" t="n">
-        <v>376550.6215</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>518434.3533957725</v>
-      </c>
-      <c r="B20" t="n">
-        <v>376567.9544368475</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>518409.867291545</v>
-      </c>
-      <c r="B21" t="n">
-        <v>376585.2873736951</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>518525.1446453025</v>
-      </c>
-      <c r="B22" t="n">
-        <v>376540.4417305324</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>518500.658541075</v>
-      </c>
-      <c r="B23" t="n">
-        <v>376557.77466738</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>518476.1724368475</v>
-      </c>
-      <c r="B24" t="n">
-        <v>376575.1076042275</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>518451.68633262</v>
-      </c>
-      <c r="B25" t="n">
-        <v>376592.440541075</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>518427.2002283926</v>
-      </c>
-      <c r="B26" t="n">
-        <v>376609.7734779225</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>518542.47758215</v>
-      </c>
-      <c r="B27" t="n">
-        <v>376564.9278347599</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>518517.9914779225</v>
-      </c>
-      <c r="B28" t="n">
-        <v>376582.2607716075</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>518493.5053736951</v>
-      </c>
-      <c r="B29" t="n">
-        <v>376599.593708455</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>518469.0192694676</v>
-      </c>
-      <c r="B30" t="n">
-        <v>376616.9266453025</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>518444.5331652401</v>
-      </c>
-      <c r="B31" t="n">
-        <v>376634.25958215</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>518559.8105189975</v>
-      </c>
-      <c r="B32" t="n">
-        <v>376589.4139389874</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>518535.3244147701</v>
-      </c>
-      <c r="B33" t="n">
-        <v>376606.7468758349</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>518510.8383105426</v>
-      </c>
-      <c r="B34" t="n">
-        <v>376624.0798126825</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>518486.3522063151</v>
-      </c>
-      <c r="B35" t="n">
-        <v>376641.41274953</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>518461.8661020876</v>
-      </c>
-      <c r="B36" t="n">
-        <v>376658.7456863775</v>
+        <v>376639.0283604034</v>
       </c>
     </row>
   </sheetData>
